--- a/dtpu_configurations/only_integer16/30mhz/mxu_4x4/power.xlsx
+++ b/dtpu_configurations/only_integer16/30mhz/mxu_4x4/power.xlsx
@@ -175,19 +175,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.012098164297640324</v>
+        <v>0.012722240760922432</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.004967524670064449</v>
+        <v>0.0052150641568005085</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.004053919110447168</v>
+        <v>0.0040179891511797905</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.002138413954526186</v>
+        <v>0.0029195602983236313</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>9.067847713595256E-6</v>
+        <v>1.7349158952129073E-5</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>6.680326769128442E-4</v>
@@ -196,13 +196,13 @@
         <v>5.878788651898503E-4</v>
       </c>
       <c r="I2" t="n" s="4">
-        <v>1.2575920820236206</v>
+        <v>1.2575732469558716</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.1262025386095047</v>
+        <v>0.12723591923713684</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.408321738243103</v>
+        <v>1.4109612703323364</v>
       </c>
     </row>
   </sheetData>
